--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2 DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857C9AF6-F3BA-468C-9EDB-DF8DBA66A7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C079556-A701-4EC8-967D-FE5EBD2B9B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>Alunos</t>
   </si>
@@ -359,10 +359,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,17 +1074,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.7109375" style="1"/>
     <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1100,10 +1100,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="3" spans="1:45" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AJ3" s="4" t="s">
@@ -1510,7 +1510,7 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1521,6 +1521,9 @@
       <c r="B25" s="1">
         <v>21</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1529,6 +1532,9 @@
       <c r="B26" s="1">
         <v>22</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1537,6 +1543,9 @@
       <c r="B27" s="1">
         <v>23</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1545,6 +1554,9 @@
       <c r="B28" s="1">
         <v>24</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1553,6 +1565,9 @@
       <c r="B29" s="1">
         <v>25</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1561,6 +1576,9 @@
       <c r="B30" s="1">
         <v>26</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1569,6 +1587,9 @@
       <c r="B31" s="1">
         <v>27</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1577,93 +1598,129 @@
       <c r="B32" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B40" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B43" s="1">
         <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325AAAC4-8126-412C-854E-8973A81C9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F10B9-E667-4096-8A05-6D143CC2A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
   <si>
     <t>Alunos</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Quarta</t>
+  </si>
+  <si>
+    <t>Terça</t>
   </si>
 </sst>
 </file>
@@ -384,6 +387,11 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -399,11 +407,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1075,10 +1078,10 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1110,9 @@
       <c r="C1" s="2">
         <v>45497</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2">
+        <v>45503</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1160,6 +1165,9 @@
       <c r="C2" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AJ2" s="1" t="s">
         <v>85</v>
       </c>
@@ -1188,6 +1196,9 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1205,6 +1216,9 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1222,6 +1236,9 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1239,6 +1256,9 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1256,6 +1276,9 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1273,6 +1296,9 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1290,6 +1316,9 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1307,6 +1336,9 @@
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1324,6 +1356,9 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1341,6 +1376,9 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1358,6 +1396,9 @@
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1375,6 +1416,9 @@
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1392,6 +1436,9 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1409,6 +1456,9 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1426,6 +1476,9 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1443,6 +1496,9 @@
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1460,6 +1516,9 @@
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -1477,6 +1536,9 @@
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -1494,6 +1556,9 @@
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="4" t="s">
         <v>84</v>
       </c>
@@ -1507,6 +1572,9 @@
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,26 +1855,26 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="A4:A23">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A43">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:BX41">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A43">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB73899-651B-4729-8573-089D59D7AA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9AB325-EB5C-467D-AEC4-C601797EAAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="95">
   <si>
     <t>Alunos</t>
   </si>
@@ -349,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +367,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -381,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,12 +419,48 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1127,7 +1169,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1232,9 @@
       <c r="M1" s="2">
         <v>45532</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="2">
+        <v>45538</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -2188,6 +2232,9 @@
       <c r="M25" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="N25" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2229,6 +2276,9 @@
       <c r="M26" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="N26" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -2270,6 +2320,9 @@
       <c r="M27" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="N27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -2311,6 +2364,9 @@
       <c r="M28" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="N28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -2352,6 +2408,9 @@
       <c r="M29" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="N29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -2393,6 +2452,9 @@
       <c r="M30" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="N30" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2434,6 +2496,9 @@
       <c r="M31" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="N31" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2475,8 +2540,11 @@
       <c r="M32" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -2516,8 +2584,11 @@
       <c r="M33" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -2557,8 +2628,11 @@
       <c r="M34" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -2598,8 +2672,11 @@
       <c r="M35" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -2639,8 +2716,11 @@
       <c r="M36" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -2680,8 +2760,11 @@
       <c r="M37" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2718,11 +2801,43 @@
       <c r="L38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -2762,8 +2877,11 @@
       <c r="M39" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -2803,8 +2921,11 @@
       <c r="M40" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
@@ -2844,8 +2965,11 @@
       <c r="M41" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
@@ -2885,8 +3009,11 @@
       <c r="M42" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
@@ -2924,6 +3051,9 @@
         <v>3</v>
       </c>
       <c r="M43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2931,32 +3061,43 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:A43">
     <sortCondition ref="A25:A43"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C23:AI23"/>
+    <mergeCell ref="M38:AI38"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A23">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A43">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A1:XFD22 A24:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A1:XFD22 A24:XFD37 A39:XFD1048576 A38:L38 AT38:XFD38">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD22 A24:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:XFD22 A24:XFD37 A39:XFD1048576 A38:L38 AT38:XFD38">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 C3:BX22 C24:BX41">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 C3:BX22 C24:BX37 C39:BX41 C38:L38 AT38:BX38">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9AB325-EB5C-467D-AEC4-C601797EAAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B284049-5322-4644-AAB5-6926A867D13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,16 +413,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,22 +430,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1169,7 +1154,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
+      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,10 +1180,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -2150,41 +2135,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2764,7 +2749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2801,41 +2786,41 @@
       <c r="L38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M38" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="11"/>
-      <c r="AK38" s="11"/>
-      <c r="AL38" s="11"/>
-      <c r="AM38" s="11"/>
-      <c r="AN38" s="11"/>
-      <c r="AO38" s="11"/>
-      <c r="AP38" s="11"/>
-      <c r="AQ38" s="11"/>
-      <c r="AR38" s="11"/>
-      <c r="AS38" s="11"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="9"/>
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -2878,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
@@ -3067,27 +3052,27 @@
     <mergeCell ref="M38:AI38"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A23">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A43">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A1:XFD22 A24:XFD37 A39:XFD1048576 A38:L38 AT38:XFD38">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD22 A24:XFD37 A39:XFD1048576 A38:L38 AT38:XFD38">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 C3:BX22 C24:BX37 C39:BX41 C38:L38 AT38:BX38">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B284049-5322-4644-AAB5-6926A867D13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E17E61-6C30-4441-995D-E88C3D361396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1154,7 +1154,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\GitHub\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E17E61-6C30-4441-995D-E88C3D361396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B827D793-2062-4C47-B311-189D5A1E8F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="95">
   <si>
     <t>Alunos</t>
   </si>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,6 +417,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1154,7 +1157,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,10 +1183,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1332,6 +1335,12 @@
       <c r="L4" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1376,6 +1385,12 @@
       <c r="L5" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1420,6 +1435,12 @@
       <c r="L6" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1464,6 +1485,12 @@
       <c r="L7" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1508,6 +1535,12 @@
       <c r="L8" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1552,6 +1585,12 @@
       <c r="L9" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1596,6 +1635,12 @@
       <c r="L10" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1640,6 +1685,12 @@
       <c r="L11" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1684,6 +1735,12 @@
       <c r="L12" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1728,6 +1785,12 @@
       <c r="L13" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1772,6 +1835,12 @@
       <c r="L14" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1816,6 +1885,12 @@
       <c r="L15" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1860,6 +1935,12 @@
       <c r="L16" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1904,6 +1985,12 @@
       <c r="L17" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1948,6 +2035,12 @@
       <c r="L18" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1992,6 +2085,12 @@
       <c r="L19" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -2036,6 +2135,12 @@
       <c r="L20" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -2080,6 +2185,12 @@
       <c r="L21" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -2124,6 +2235,12 @@
       <c r="L22" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="M22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="4" t="s">
         <v>84</v>
       </c>
@@ -2135,41 +2252,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2262,7 +2379,7 @@
         <v>94</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -2786,31 +2903,31 @@
       <c r="L38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="12" t="s">
+      <c r="M38" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
-      <c r="AI38" s="12"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="9"/>
@@ -3061,17 +3178,17 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A1:XFD22 A24:XFD37 A39:XFD1048576 A38:L38 AT38:XFD38">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A24:XFD37 A39:XFD1048576 A38:L38 AT38:XFD38 A1:XFD22">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD22 A24:XFD37 A39:XFD1048576 A38:L38 AT38:XFD38">
+  <conditionalFormatting sqref="A24:XFD37 A39:XFD1048576 A38:L38 AT38:XFD38 A1:XFD22">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 C3:BX22 C24:BX37 C39:BX41 C38:L38 AT38:BX38">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 C24:BX37 C39:BX41 C38:L38 AT38:BX38 C3:BX22">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Documents\GitHub\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B827D793-2062-4C47-B311-189D5A1E8F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E942EC-DCE9-4A3F-9D88-AF74D7D80C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="95">
   <si>
     <t>Alunos</t>
   </si>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,19 +407,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -448,6 +439,21 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -458,21 +464,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1157,7 +1148,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomRight" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,10 +1174,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1223,8 +1214,12 @@
       <c r="N1" s="2">
         <v>45538</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="O1" s="2">
+        <v>45545</v>
+      </c>
+      <c r="P1" s="2">
+        <v>45546</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -1332,13 +1327,19 @@
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ4" s="4" t="s">
@@ -1382,13 +1383,19 @@
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ5" s="4" t="s">
@@ -1432,13 +1439,19 @@
       <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="L6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ6" s="4" t="s">
@@ -1482,13 +1495,19 @@
       <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ7" s="4" t="s">
@@ -1532,13 +1551,19 @@
       <c r="K8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="L8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ8" s="4" t="s">
@@ -1582,14 +1607,20 @@
       <c r="K9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>3</v>
+      <c r="L9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
@@ -1632,13 +1663,19 @@
       <c r="K10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="L10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ10" s="4" t="s">
@@ -1682,13 +1719,19 @@
       <c r="K11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="L11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ11" s="4" t="s">
@@ -1732,13 +1775,19 @@
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="11" t="s">
+      <c r="L12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ12" s="4" t="s">
@@ -1782,13 +1831,19 @@
       <c r="K13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="11" t="s">
+      <c r="L13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ13" s="4" t="s">
@@ -1832,14 +1887,20 @@
       <c r="K14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>4</v>
+      <c r="L14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
@@ -1882,13 +1943,19 @@
       <c r="K15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="11" t="s">
+      <c r="L15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ15" s="4" t="s">
@@ -1932,13 +1999,19 @@
       <c r="K16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="11" t="s">
+      <c r="L16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ16" s="4" t="s">
@@ -1982,13 +2055,19 @@
       <c r="K17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="L17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ17" s="4" t="s">
@@ -2032,13 +2111,19 @@
       <c r="K18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="11" t="s">
+      <c r="L18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ18" s="4" t="s">
@@ -2082,13 +2167,19 @@
       <c r="K19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" s="11" t="s">
+      <c r="L19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ19" s="4" t="s">
@@ -2132,13 +2223,19 @@
       <c r="K20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="11" t="s">
+      <c r="L20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ20" s="4" t="s">
@@ -2182,13 +2279,19 @@
       <c r="K21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="11" t="s">
+      <c r="L21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ21" s="4" t="s">
@@ -2232,13 +2335,19 @@
       <c r="K22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="11" t="s">
+      <c r="L22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ22" s="4" t="s">
@@ -2252,41 +2361,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2331,11 +2440,17 @@
       <c r="L25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -2375,10 +2490,16 @@
       <c r="L26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="1" t="s">
         <v>94</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2419,10 +2540,16 @@
       <c r="L27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2463,10 +2590,16 @@
       <c r="L28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2507,10 +2640,16 @@
       <c r="L29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2557,6 +2696,12 @@
       <c r="N30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2595,11 +2740,17 @@
       <c r="L31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
@@ -2639,10 +2790,16 @@
       <c r="L32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2683,12 +2840,19 @@
       <c r="L33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="6"/>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2727,10 +2891,16 @@
       <c r="L34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2771,10 +2941,16 @@
       <c r="L35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2815,10 +2991,16 @@
       <c r="L36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2859,14 +3041,20 @@
       <c r="L37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2903,41 +3091,41 @@
       <c r="L38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="9"/>
-      <c r="AK38" s="9"/>
-      <c r="AL38" s="9"/>
-      <c r="AM38" s="9"/>
-      <c r="AN38" s="9"/>
-      <c r="AO38" s="9"/>
-      <c r="AP38" s="9"/>
-      <c r="AQ38" s="9"/>
-      <c r="AR38" s="9"/>
-      <c r="AS38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -2976,10 +3164,16 @@
       <c r="L39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3020,10 +3214,16 @@
       <c r="L40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3064,10 +3264,16 @@
       <c r="L41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3108,10 +3314,16 @@
       <c r="L42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3152,10 +3364,16 @@
       <c r="L43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3178,28 +3396,26 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A24:XFD37 A39:XFD1048576 A38:L38 AT38:XFD38 A1:XFD22">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+  <conditionalFormatting sqref="A38:M38">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:XFD37 A39:XFD1048576 A38:L38 AT38:XFD38 A1:XFD22">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 AT38:XFD38 A1:XFD22 A24:XFD37 A39:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 C24:BX37 C39:BX41 C38:L38 AT38:BX38 C3:BX22">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:XFD22 A39:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 AT38:XFD38 C39:BX41 O40:O43 C3:BX22 A24:XFD37 P39:P43">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E942EC-DCE9-4A3F-9D88-AF74D7D80C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C29534-C18A-4A7B-B3FB-2A6958AB5983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="95">
   <si>
     <t>Alunos</t>
   </si>
@@ -1148,7 +1148,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T33" sqref="T33"/>
+      <selection pane="bottomRight" activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1220,9 @@
       <c r="P1" s="2">
         <v>45546</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2">
+        <v>45552</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -2452,6 +2454,9 @@
       <c r="P25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2502,6 +2507,9 @@
       <c r="P26" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q26" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -2552,6 +2560,9 @@
       <c r="P27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -2602,6 +2613,9 @@
       <c r="P28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -2652,6 +2666,9 @@
       <c r="P29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -2702,6 +2719,9 @@
       <c r="P30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q30" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2752,6 +2772,9 @@
       <c r="P31" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="Q31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2802,6 +2825,9 @@
       <c r="P32" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q32" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2852,6 +2878,9 @@
       <c r="P33" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q33" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="T33" s="6"/>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
@@ -2903,6 +2932,9 @@
       <c r="P34" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q34" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -2953,6 +2985,9 @@
       <c r="P35" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q35" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -3003,6 +3038,9 @@
       <c r="P36" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q36" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -3051,6 +3089,9 @@
         <v>3</v>
       </c>
       <c r="P37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3176,6 +3217,9 @@
       <c r="P39" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q39" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -3226,6 +3270,9 @@
       <c r="P40" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q40" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -3276,6 +3323,9 @@
       <c r="P41" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q41" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -3326,6 +3376,9 @@
       <c r="P42" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q42" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -3375,6 +3428,9 @@
       </c>
       <c r="P43" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C29534-C18A-4A7B-B3FB-2A6958AB5983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0165B3A-B86E-4B1D-ACC8-C8C4F8D44E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -2508,7 +2508,7 @@
         <v>3</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -3430,7 +3430,7 @@
         <v>3</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0165B3A-B86E-4B1D-ACC8-C8C4F8D44E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B697D0-697E-4E51-B552-1A7E358528D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="95">
   <si>
     <t>Alunos</t>
   </si>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +411,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1148,7 +1151,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q44" sqref="Q44"/>
+      <selection pane="bottomRight" activeCell="V39" sqref="V39:V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1166,10 @@
     <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1174,10 +1180,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1223,13 +1229,27 @@
       <c r="Q1" s="2">
         <v>45552</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="R1" s="2">
+        <v>45553</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45559</v>
+      </c>
+      <c r="T1" s="2">
+        <v>45560</v>
+      </c>
+      <c r="U1" s="2">
+        <v>45566</v>
+      </c>
+      <c r="V1" s="2">
+        <v>45567</v>
+      </c>
+      <c r="W1" s="2">
+        <v>45573</v>
+      </c>
+      <c r="X1" s="2">
+        <v>45574</v>
+      </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -2363,41 +2383,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2457,6 +2477,27 @@
       <c r="Q25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2510,6 +2551,27 @@
       <c r="Q26" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -2563,6 +2625,27 @@
       <c r="Q27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -2616,6 +2699,27 @@
       <c r="Q28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -2669,6 +2773,27 @@
       <c r="Q29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -2722,6 +2847,27 @@
       <c r="Q30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2775,6 +2921,27 @@
       <c r="Q31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2828,6 +2995,27 @@
       <c r="Q32" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2881,7 +3069,27 @@
       <c r="Q33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T33" s="6"/>
+      <c r="R33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2935,6 +3143,27 @@
       <c r="Q34" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -2988,6 +3217,27 @@
       <c r="Q35" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -3041,6 +3291,27 @@
       <c r="Q36" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -3094,6 +3365,27 @@
       <c r="Q37" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -3132,31 +3424,31 @@
       <c r="L38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
@@ -3220,6 +3512,27 @@
       <c r="Q39" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -3273,6 +3586,27 @@
       <c r="Q40" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -3326,6 +3660,27 @@
       <c r="Q41" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -3379,6 +3734,27 @@
       <c r="Q42" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -3430,6 +3806,27 @@
         <v>3</v>
       </c>
       <c r="Q43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3470,7 +3867,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 AT38:XFD38 C39:BX41 O40:O43 C3:BX22 A24:XFD37 P39:P43">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 AT38:XFD38 O40:O43 C3:BX22 P39:P43 A24:XFD37 C39:BX41">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B697D0-697E-4E51-B552-1A7E358528D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC536EF-4185-4851-8F0B-21B3FBA40DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="95">
   <si>
     <t>Alunos</t>
   </si>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,9 +411,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -502,9 +499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -542,7 +539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -648,7 +645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,7 +787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1151,7 +1148,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V39" sqref="V39:V43"/>
+      <selection pane="bottomRight" activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,10 +1177,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1250,12 +1247,24 @@
       <c r="X1" s="2">
         <v>45574</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
+      <c r="Y1" s="2">
+        <v>45580</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>45581</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>45587</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>45588</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>45594</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>45595</v>
+      </c>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
@@ -1364,6 +1373,48 @@
       <c r="P4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1420,6 +1471,48 @@
       <c r="P5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1476,6 +1569,48 @@
       <c r="P6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1532,6 +1667,48 @@
       <c r="P7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1588,6 +1765,48 @@
       <c r="P8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1644,6 +1863,48 @@
       <c r="P9" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="Q9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1700,6 +1961,48 @@
       <c r="P10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1756,6 +2059,48 @@
       <c r="P11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1812,6 +2157,48 @@
       <c r="P12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1868,6 +2255,48 @@
       <c r="P13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1924,6 +2353,48 @@
       <c r="P14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1980,6 +2451,48 @@
       <c r="P15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -2036,6 +2549,48 @@
       <c r="P16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -2092,6 +2647,48 @@
       <c r="P17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -2148,6 +2745,48 @@
       <c r="P18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -2204,6 +2843,48 @@
       <c r="P19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -2260,6 +2941,48 @@
       <c r="P20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -2316,6 +3039,48 @@
       <c r="P21" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -2372,6 +3137,48 @@
       <c r="P22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="Q22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="4" t="s">
         <v>84</v>
       </c>
@@ -2383,41 +3190,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2477,26 +3284,44 @@
       <c r="Q25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W25" s="9" t="s">
+      <c r="R25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -2551,25 +3376,43 @@
       <c r="Q26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W26" s="9" t="s">
+      <c r="R26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2625,25 +3468,43 @@
       <c r="Q27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W27" s="9" t="s">
+      <c r="R27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2699,25 +3560,43 @@
       <c r="Q28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W28" s="9" t="s">
+      <c r="R28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2773,25 +3652,43 @@
       <c r="Q29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W29" s="9" t="s">
+      <c r="R29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2847,26 +3744,44 @@
       <c r="Q30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W30" s="9" t="s">
+      <c r="R30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -2921,26 +3836,44 @@
       <c r="Q31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W31" s="9" t="s">
+      <c r="R31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
@@ -2995,25 +3928,43 @@
       <c r="Q32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32" s="9" t="s">
+      <c r="R32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3069,25 +4020,43 @@
       <c r="Q33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W33" s="9" t="s">
+      <c r="R33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3143,25 +4112,43 @@
       <c r="Q34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W34" s="9" t="s">
+      <c r="R34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3217,25 +4204,43 @@
       <c r="Q35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W35" s="9" t="s">
+      <c r="R35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3291,25 +4296,43 @@
       <c r="Q36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W36" s="9" t="s">
+      <c r="R36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3365,25 +4388,43 @@
       <c r="Q37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W37" s="9" t="s">
+      <c r="R37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3424,31 +4465,31 @@
       <c r="L38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="11"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
@@ -3512,19 +4553,19 @@
       <c r="Q39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V39" s="9" t="s">
+      <c r="R39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="W39" s="1" t="s">
@@ -3532,6 +4573,24 @@
       </c>
       <c r="X39" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
@@ -3586,25 +4645,43 @@
       <c r="Q40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V40" s="9" t="s">
+      <c r="R40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3660,25 +4737,43 @@
       <c r="Q41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V41" s="9" t="s">
+      <c r="R41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3734,25 +4829,43 @@
       <c r="Q42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V42" s="9" t="s">
+      <c r="R42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3808,25 +4921,43 @@
       <c r="Q43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V43" s="9" t="s">
+      <c r="R43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="W43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3867,7 +4998,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 AT38:XFD38 O40:O43 C3:BX22 P39:P43 A24:XFD37 C39:BX41">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 AT38:XFD38 C39:BX41 P39:P43 O40:O43 C3:BX22 A24:XFD37 Y39:AD43">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC536EF-4185-4851-8F0B-21B3FBA40DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52113E3C-C2FC-4C86-A3FF-F7CBD1D49CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="95">
   <si>
     <t>Alunos</t>
   </si>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +416,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,16 +442,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -499,9 +502,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -539,7 +542,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -645,7 +648,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -787,7 +790,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1148,7 +1151,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC14" sqref="AC14"/>
+      <selection pane="bottomRight" activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1172,7 @@
     <col min="22" max="23" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="35" width="6.7109375" style="1"/>
     <col min="36" max="36" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1177,10 +1180,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1265,7 +1268,9 @@
       <c r="AD1" s="2">
         <v>45595</v>
       </c>
-      <c r="AE1" s="2"/>
+      <c r="AE1" s="2">
+        <v>45601</v>
+      </c>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
@@ -1306,6 +1311,31 @@
       <c r="H2" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="I2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
       <c r="AJ2" s="1" t="s">
         <v>85</v>
       </c>
@@ -3190,41 +3220,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3323,6 +3353,9 @@
       <c r="AD25" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AE25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -3415,6 +3448,9 @@
       <c r="AD26" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE26" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -3507,6 +3543,9 @@
       <c r="AD27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -3599,6 +3638,9 @@
       <c r="AD28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -3691,6 +3733,9 @@
       <c r="AD29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -3783,6 +3828,9 @@
       <c r="AD30" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AE30" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -3875,6 +3923,9 @@
       <c r="AD31" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AE31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3967,6 +4018,9 @@
       <c r="AD32" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE32" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -4059,6 +4113,9 @@
       <c r="AD33" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE33" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -4151,6 +4208,9 @@
       <c r="AD34" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE34" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -4243,6 +4303,9 @@
       <c r="AD35" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE35" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -4335,6 +4398,9 @@
       <c r="AD36" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE36" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -4427,6 +4493,9 @@
       <c r="AD37" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE37" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -4465,31 +4534,31 @@
       <c r="L38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
@@ -4592,6 +4661,9 @@
       <c r="AD39" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AE39" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -4684,6 +4756,9 @@
       <c r="AD40" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE40" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -4776,6 +4851,9 @@
       <c r="AD41" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE41" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -4868,6 +4946,9 @@
       <c r="AD42" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE42" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -4958,6 +5039,9 @@
         <v>3</v>
       </c>
       <c r="AD43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4988,18 +5072,18 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 AT38:XFD38 A1:XFD22 A24:XFD37 A39:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 AT38:XFD38 A24:XFD37 A39:XFD1048576 A1:XFD22">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD22 A39:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+  <conditionalFormatting sqref="A39:XFD1048576 A1:XFD22">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 AT38:XFD38 C39:BX41 P39:P43 O40:O43 C3:BX22 A24:XFD37 Y39:AD43">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2DES/frequencia.xlsx
+++ b/2DES/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52113E3C-C2FC-4C86-A3FF-F7CBD1D49CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D4FE7A-8AF2-47B2-BED2-3D615C472187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="95">
   <si>
     <t>Alunos</t>
   </si>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +419,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,16 +445,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1151,7 +1154,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE30" sqref="AE30"/>
+      <selection pane="bottomRight" activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,10 +1183,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -3220,41 +3223,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3356,6 +3359,9 @@
       <c r="AE25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF25" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -3451,6 +3457,9 @@
       <c r="AE26" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AF26" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -3546,6 +3555,9 @@
       <c r="AE27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF27" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -3641,6 +3653,9 @@
       <c r="AE28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF28" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -3736,6 +3751,9 @@
       <c r="AE29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF29" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -3831,6 +3849,9 @@
       <c r="AE30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF30" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -3926,6 +3947,9 @@
       <c r="AE31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF31" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -4021,6 +4045,9 @@
       <c r="AE32" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF32" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -4116,6 +4143,9 @@
       <c r="AE33" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF33" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -4211,6 +4241,9 @@
       <c r="AE34" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF34" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -4306,6 +4339,9 @@
       <c r="AE35" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF35" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -4401,6 +4437,9 @@
       <c r="AE36" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF36" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -4496,6 +4535,9 @@
       <c r="AE37" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF37" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -4534,31 +4576,31 @@
       <c r="L38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="11"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
@@ -4664,6 +4706,9 @@
       <c r="AE39" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AF39" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -4759,6 +4804,9 @@
       <c r="AE40" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF40" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -4854,6 +4902,9 @@
       <c r="AE41" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF41" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -4947,6 +4998,9 @@
         <v>3</v>
       </c>
       <c r="AE42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5072,18 +5126,18 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 AT38:XFD38 A24:XFD37 A39:XFD1048576 A1:XFD22">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 AT38:XFD38 A39:XFD1048576 A1:XFD22 A24:XFD37">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD1048576 A1:XFD22">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 AT38:XFD38 C39:BX41 P39:P43 O40:O43 C3:BX22 A24:XFD37 Y39:AD43">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 AT38:XFD38 C39:BX41 P39:P43 O40:O43 C3:BX22 Y39:AD43 A24:XFD37">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
